--- a/biology/Botanique/Rytidosperma/Rytidosperma.xlsx
+++ b/biology/Botanique/Rytidosperma/Rytidosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rytidosperma  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae[2], originaire d'Australasie et d'Amérique du Sud, qui comprend environ 35 espèces.
-Ce sont des plantes herbacées vivaces, cespiteuses aux tiges pouvant atteindre 60 cm de haut, à inflorescence paniculée, parfois réduite à un seul épillet[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rytidosperma  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae, originaire d'Australasie et d'Amérique du Sud, qui comprend environ 35 espèces.
+Ce sont des plantes herbacées vivaces, cespiteuses aux tiges pouvant atteindre 60 cm de haut, à inflorescence paniculée, parfois réduite à un seul épillet. 
 Étymologie
-le nom générique « Rytidosperma » dérive de deux racines grecques : ῥυτίς, rhytis (ride, pli), et σπέρμα, sperma (graine), en référence au dos d'une larve confondue avec la graine[3].
+le nom générique « Rytidosperma » dérive de deux racines grecques : ῥυτίς, rhytis (ride, pli), et σπέρμα, sperma (graine), en référence au dos d'une larve confondue avec la graine.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (8 mai 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (8 mai 2017) :
 Austrodanthonia H. P. Linder
 Erythranthera Zotov
 Joycea H. P. Linder
@@ -552,9 +566,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (8 mai 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (8 mai 2017) :
 Rytidosperma acerosum (Vickery) Connor &amp; Edgar
 Rytidosperma alpicola (Vickery) Connor &amp; Edgar
 Rytidosperma auriculatum (J.M.Black) Connor &amp; Edgar
